--- a/relayer/100Level.xlsx
+++ b/relayer/100Level.xlsx
@@ -1,42 +1,194 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\anozie\metavote\relayer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C69373-08C9-423C-9CBB-13692A41E4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+  <si>
+    <t>20221355691</t>
+  </si>
+  <si>
+    <t>20221349051</t>
+  </si>
+  <si>
+    <t>20221337081</t>
+  </si>
+  <si>
+    <t>20221349261</t>
+  </si>
+  <si>
+    <t>20221336951</t>
+  </si>
+  <si>
+    <t>20221340731</t>
+  </si>
+  <si>
+    <t>20221352671</t>
+  </si>
+  <si>
+    <t>20221325831</t>
+  </si>
+  <si>
+    <t>20221326191</t>
+  </si>
+  <si>
+    <t>20221350591</t>
+  </si>
+  <si>
+    <t>20221347255</t>
+  </si>
+  <si>
+    <t>20221314181</t>
+  </si>
+  <si>
+    <t>20211324551</t>
+  </si>
+  <si>
+    <t>20221316921</t>
+  </si>
+  <si>
+    <t>20221359111</t>
+  </si>
+  <si>
+    <t>20221350731</t>
+  </si>
+  <si>
+    <t>20221356601</t>
+  </si>
+  <si>
+    <t>20221342831</t>
+  </si>
+  <si>
+    <t>20221350101</t>
+  </si>
+  <si>
+    <t>20221349481</t>
+  </si>
+  <si>
+    <t>20221343811</t>
+  </si>
+  <si>
+    <t>20221350861</t>
+  </si>
+  <si>
+    <t>20221353221</t>
+  </si>
+  <si>
+    <t>20221308101</t>
+  </si>
+  <si>
+    <t>20221358571</t>
+  </si>
+  <si>
+    <t>20221358701</t>
+  </si>
+  <si>
+    <t>20221357561</t>
+  </si>
+  <si>
+    <t>20221328991</t>
+  </si>
+  <si>
+    <t>20221339291</t>
+  </si>
+  <si>
+    <t>20221331161</t>
+  </si>
+  <si>
+    <t>20221342061</t>
+  </si>
+  <si>
+    <t>20221356831</t>
+  </si>
+  <si>
+    <t>20221355671</t>
+  </si>
+  <si>
+    <t>20221312751</t>
+  </si>
+  <si>
+    <t>20221335201</t>
+  </si>
+  <si>
+    <t>20221358881</t>
+  </si>
+  <si>
+    <t>20221330991</t>
+  </si>
+  <si>
+    <t>20221355851</t>
+  </si>
+  <si>
+    <t>20221331451</t>
+  </si>
+  <si>
+    <t>20221348611</t>
+  </si>
+  <si>
+    <t>20221327991</t>
+  </si>
+  <si>
+    <t>20221340561</t>
+  </si>
+  <si>
+    <t>20221312521</t>
+  </si>
+  <si>
+    <t>20221354781</t>
+  </si>
+  <si>
+    <t>20221357031</t>
+  </si>
+  <si>
+    <t>20221356301</t>
+  </si>
+  <si>
+    <t>20221328771</t>
+  </si>
+  <si>
+    <t>20221324811</t>
+  </si>
+  <si>
+    <t>20221350511</t>
+  </si>
+  <si>
+    <t>RegistrationNumber</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -64,14 +216,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,423 +557,432 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>registrationNumber</v>
-      </c>
-      <c r="B1" t="str">
-        <v>pin</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>20221355691</v>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>106902</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>20221349051</v>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>358094</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>20221337081</v>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
       </c>
       <c r="B4">
         <v>339819</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>20221349051</v>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
       </c>
       <c r="B5">
         <v>968572</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>20221349261</v>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
       </c>
       <c r="B6">
         <v>854438</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>20221336951</v>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
       </c>
       <c r="B7">
         <v>584903</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>20221340731</v>
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
       </c>
       <c r="B8">
         <v>420913</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>20221352671</v>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
       </c>
       <c r="B9">
         <v>717681</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>20221325831</v>
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
       </c>
       <c r="B10">
         <v>177299</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>20221326191</v>
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
       </c>
       <c r="B11">
         <v>876353</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>20221350591</v>
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
       <c r="B12">
         <v>142766</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>20221347255</v>
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
       </c>
       <c r="B13">
         <v>395370</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>20221314181</v>
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
       </c>
       <c r="B14">
         <v>575350</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>20211324551</v>
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
       </c>
       <c r="B15">
         <v>480068</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>20221316921</v>
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
       </c>
       <c r="B16">
         <v>446156</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>20221359111</v>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
       </c>
       <c r="B17">
         <v>935941</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>20221350731</v>
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
       </c>
       <c r="B18">
         <v>499313</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>20221356601</v>
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
       </c>
       <c r="B19">
         <v>410291</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>20221342831</v>
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>17</v>
       </c>
       <c r="B20">
         <v>272617</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>20221350101</v>
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>18</v>
       </c>
       <c r="B21">
         <v>658152</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>20221349481</v>
+    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
       </c>
       <c r="B22">
         <v>731020</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>20221343811</v>
+    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>20</v>
       </c>
       <c r="B23">
         <v>196481</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>20221350861</v>
+    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
       </c>
       <c r="B24">
         <v>304423</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>20221353221</v>
+    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
       </c>
       <c r="B25">
         <v>728593</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>20221308101</v>
+    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>23</v>
       </c>
       <c r="B26">
         <v>630149</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>20221358571</v>
+    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>24</v>
       </c>
       <c r="B27">
         <v>264646</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>20221358701</v>
+    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>25</v>
       </c>
       <c r="B28">
         <v>950009</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>20221357561</v>
+    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>26</v>
       </c>
       <c r="B29">
         <v>463684</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>20221328991</v>
+    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>27</v>
       </c>
       <c r="B30">
         <v>417249</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>20221339291</v>
+    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>28</v>
       </c>
       <c r="B31">
         <v>599925</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>20221331161</v>
+    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>29</v>
       </c>
       <c r="B32">
         <v>786736</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>20221342061</v>
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>30</v>
       </c>
       <c r="B33">
         <v>230026</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>20221356831</v>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>31</v>
       </c>
       <c r="B34">
         <v>511280</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>20221355671</v>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>32</v>
       </c>
       <c r="B35">
         <v>763653</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>20221312751</v>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>33</v>
       </c>
       <c r="B36">
         <v>296530</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>20221335201</v>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>34</v>
       </c>
       <c r="B37">
         <v>497051</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>20221358881</v>
+    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>35</v>
       </c>
       <c r="B38">
         <v>770329</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>20221330991</v>
+    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>36</v>
       </c>
       <c r="B39">
         <v>456052</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>20221355851</v>
+    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>37</v>
       </c>
       <c r="B40">
         <v>606430</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>20221331451</v>
+    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>38</v>
       </c>
       <c r="B41">
         <v>919707</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>20221348611</v>
+    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>39</v>
       </c>
       <c r="B42">
         <v>372467</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>20221327991</v>
+    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>40</v>
       </c>
       <c r="B43">
         <v>141096</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>20221340561</v>
+    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>41</v>
       </c>
       <c r="B44">
         <v>705226</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>20221312521</v>
+    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>42</v>
       </c>
       <c r="B45">
         <v>540474</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>20221354781</v>
+    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>43</v>
       </c>
       <c r="B46">
         <v>781410</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>20221357031</v>
+    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>44</v>
       </c>
       <c r="B47">
         <v>376937</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>20221356301</v>
+    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>45</v>
       </c>
       <c r="B48">
         <v>797888</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>20221328771</v>
+    <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>46</v>
       </c>
       <c r="B49">
         <v>201994</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>20221324811</v>
+    <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>47</v>
       </c>
       <c r="B50">
         <v>287206</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>20221350511</v>
+    <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>48</v>
       </c>
       <c r="B51">
         <v>995834</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B51"/>
+    <ignoredError sqref="A2:B51" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>